--- a/ejemplos_clase/Facebook_Friend_Search_Scenario.xlsx
+++ b/ejemplos_clase/Facebook_Friend_Search_Scenario.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\repo\intro_automation\ejemplos_clase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="12934"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -36,23 +44,68 @@
   <si>
     <t>Observaciones</t>
   </si>
+  <si>
+    <t>Facebook Friend Search</t>
+  </si>
+  <si>
+    <t>Friend Name</t>
+  </si>
+  <si>
+    <t>Open "www.facebook.com</t>
+  </si>
+  <si>
+    <t>Facebook home page is displayed</t>
+  </si>
+  <si>
+    <t>User name and password</t>
+  </si>
+  <si>
+    <t>Insert friend name in search box</t>
+  </si>
+  <si>
+    <t>Friend name is displayed in search box</t>
+  </si>
+  <si>
+    <t>Click "Enter"</t>
+  </si>
+  <si>
+    <t>Validate friend list</t>
+  </si>
+  <si>
+    <t>Friend name should be in the list</t>
+  </si>
+  <si>
+    <t>Friend list should be displayed</t>
+  </si>
+  <si>
+    <t>Insert user name and password</t>
+  </si>
+  <si>
+    <t>Login ok, "the wall" should be displayed</t>
+  </si>
+  <si>
+    <t>Friend Name - already registered
+Facebook Account
+Web browser: Safari, Chrome, Firefox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Ubuntu"/>
     </font>
   </fonts>
@@ -61,7 +114,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -71,72 +124,338 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.3046875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.43"/>
-    <col customWidth="1" min="2" max="2" width="21.0"/>
-    <col customWidth="1" min="3" max="3" width="42.0"/>
-    <col customWidth="1" min="4" max="4" width="47.0"/>
-    <col customWidth="1" min="5" max="5" width="19.29"/>
-    <col customWidth="1" min="6" max="6" width="21.14"/>
-    <col customWidth="1" min="7" max="7" width="29.0"/>
-    <col customWidth="1" min="8" max="26" width="10.71"/>
+    <col min="1" max="1" width="11.4609375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="19.3046875" customWidth="1"/>
+    <col min="6" max="6" width="21.15234375" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="26" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="14.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -151,16 +470,22 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="45.0" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:7" ht="45" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="14.6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -169,7 +494,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="14.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -178,7 +503,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="14.6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -187,7 +512,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="14.6">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -206,74 +531,95 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="45.0" customHeight="1">
+    <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="75.0" customHeight="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="A8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="30.0" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" customHeight="1">
       <c r="A9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" ht="30.0" customHeight="1">
+    <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>5.0</v>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="2">
+        <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:7" ht="14.6">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>6.0</v>
-      </c>
+    <row r="13" spans="1:7" ht="14.6">
+      <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="2"/>
@@ -281,16 +627,18 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:7" ht="14.6">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="14.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -299,7 +647,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="14.6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -308,7 +656,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="14.6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -317,7 +665,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="14.6">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -326,7 +674,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="14.6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -335,7 +683,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="14.6">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -344,7 +692,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="14.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -353,7 +701,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="14.6">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -362,7 +710,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="14.6">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -371,7 +719,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="14.6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -380,7 +728,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="14.6">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -389,7 +737,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="14.6">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -398,7 +746,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="14.6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -407,7 +755,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="14.6">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -416,7 +764,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="14.6">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -425,7 +773,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="14.6">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -434,7 +782,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="14.6">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -443,7 +791,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="14.6">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -452,7 +800,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" ht="14.6">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -461,7 +809,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="14.6">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -470,7 +818,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" ht="14.6">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -479,7 +827,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="14.6">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -488,7 +836,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="14.6">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -497,7 +845,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="14.6">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -506,7 +854,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="14.6">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -515,7 +863,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" ht="14.6">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -524,7 +872,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" ht="14.6">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -533,7 +881,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="14.6">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -542,7 +890,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="14.6">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -551,7 +899,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" ht="14.6">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -560,7 +908,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="14.6">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -569,7 +917,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" ht="14.6">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -578,7 +926,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" ht="14.6">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -587,7 +935,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" ht="14.6">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -596,7 +944,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="14.6">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -605,7 +953,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="14.6">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -614,7 +962,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="14.6">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -623,7 +971,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="14.6">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -632,7 +980,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="14.6">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -641,7 +989,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" ht="14.6">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -650,7 +998,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="14.6">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -659,7 +1007,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="14.6">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -668,7 +1016,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="14.6">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -677,7 +1025,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="14.6">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -686,7 +1034,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="14.6">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -695,7 +1043,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="14.6">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -704,7 +1052,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="14.6">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -713,7 +1061,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" ht="14.6">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -722,7 +1070,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" ht="14.6">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -731,7 +1079,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="14.6">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -740,7 +1088,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" ht="14.6">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -749,7 +1097,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" ht="14.6">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -758,7 +1106,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" ht="14.6">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -767,7 +1115,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" ht="14.6">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -776,7 +1124,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="14.6">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -785,7 +1133,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" ht="14.6">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -794,7 +1142,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" ht="14.6">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -803,7 +1151,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" ht="14.6">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -812,7 +1160,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" ht="14.6">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -821,7 +1169,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" ht="14.6">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -830,7 +1178,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" ht="14.6">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -839,7 +1187,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" ht="14.6">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -848,7 +1196,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" ht="14.6">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -857,7 +1205,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" ht="14.6">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -866,7 +1214,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" ht="14.6">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -875,7 +1223,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" ht="14.6">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -884,7 +1232,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" ht="14.6">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -893,7 +1241,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" ht="14.6">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -902,7 +1250,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" ht="14.6">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -911,7 +1259,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="14.6">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -920,7 +1268,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" ht="14.6">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -929,7 +1277,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" ht="14.6">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -938,7 +1286,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" ht="14.6">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -947,7 +1295,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="14.6">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -956,7 +1304,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" ht="14.6">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -965,7 +1313,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" ht="14.6">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -974,7 +1322,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" ht="14.6">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -983,7 +1331,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" ht="14.6">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -992,7 +1340,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" ht="14.6">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1001,7 +1349,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" ht="14.6">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1010,7 +1358,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" ht="14.6">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1019,7 +1367,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" ht="14.6">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1028,7 +1376,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" ht="14.6">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1037,7 +1385,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" ht="14.6">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1046,7 +1394,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" ht="14.6">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1055,7 +1403,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" ht="14.6">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1064,7 +1412,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" ht="14.6">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1073,7 +1421,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" ht="14.6">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1082,7 +1430,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" ht="14.6">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1091,7 +1439,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" ht="14.6">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1100,7 +1448,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" ht="14.6">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1109,7 +1457,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="14.6">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1118,7 +1466,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" ht="14.6">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1127,7 +1475,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" ht="14.6">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1136,7 +1484,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="14.6">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1145,7 +1493,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" ht="14.6">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1154,7 +1502,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="14.6">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1163,7 +1511,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" ht="14.6">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1172,7 +1520,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" ht="14.6">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1181,7 +1529,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" ht="14.6">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1190,7 +1538,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" ht="14.6">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1199,7 +1547,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" ht="14.6">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1208,7 +1556,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" ht="14.6">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1217,7 +1565,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" ht="14.6">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1226,7 +1574,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" ht="14.6">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1235,7 +1583,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" ht="14.6">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1244,7 +1592,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" ht="14.6">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1253,7 +1601,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" ht="14.6">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1262,7 +1610,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" ht="14.6">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1271,7 +1619,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" ht="14.6">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1280,7 +1628,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" ht="14.6">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1289,7 +1637,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" ht="14.6">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1298,7 +1646,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" ht="14.6">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1307,7 +1655,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" ht="14.6">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1316,7 +1664,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" ht="14.6">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1325,7 +1673,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" ht="14.6">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1334,7 +1682,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" ht="14.6">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1343,7 +1691,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" ht="14.6">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1352,7 +1700,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" ht="14.6">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -1361,7 +1709,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" ht="14.6">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1370,7 +1718,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" ht="14.6">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1379,7 +1727,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" ht="14.6">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1388,7 +1736,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" ht="14.6">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -1397,7 +1745,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" ht="14.6">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -1406,7 +1754,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" ht="14.6">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -1415,7 +1763,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" ht="14.6">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -1424,7 +1772,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" ht="14.6">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -1433,7 +1781,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" ht="14.6">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -1442,7 +1790,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" ht="14.6">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -1451,7 +1799,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" ht="14.6">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -1460,7 +1808,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" ht="14.6">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -1469,7 +1817,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" ht="14.6">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -1478,7 +1826,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" ht="14.6">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -1487,7 +1835,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" ht="14.6">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -1496,7 +1844,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" ht="14.6">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -1505,7 +1853,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" ht="14.6">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -1514,7 +1862,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" ht="14.6">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -1523,7 +1871,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" ht="14.6">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -1532,7 +1880,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" ht="14.6">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -1541,7 +1889,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" ht="14.6">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -1550,7 +1898,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" ht="14.6">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -1559,7 +1907,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" ht="14.6">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -1568,7 +1916,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" ht="14.6">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -1577,7 +1925,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" ht="14.6">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -1586,7 +1934,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" ht="14.6">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -1595,7 +1943,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" ht="14.6">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -1604,7 +1952,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" ht="14.6">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -1613,7 +1961,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" ht="14.6">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -1622,7 +1970,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" ht="14.6">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -1631,7 +1979,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" ht="14.6">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -1640,7 +1988,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" ht="14.6">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -1649,7 +1997,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" ht="14.6">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -1658,7 +2006,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" ht="14.6">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -1667,7 +2015,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" ht="14.6">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -1676,7 +2024,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" ht="14.6">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -1685,7 +2033,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" ht="14.6">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -1694,7 +2042,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" ht="14.6">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -1703,7 +2051,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" ht="14.6">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -1712,7 +2060,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" ht="14.6">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -1721,7 +2069,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" ht="14.6">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -1730,7 +2078,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" ht="14.6">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -1739,7 +2087,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" ht="14.6">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -1748,7 +2096,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" ht="14.6">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -1757,7 +2105,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" ht="14.6">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -1766,7 +2114,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" ht="14.6">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -1775,7 +2123,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" ht="14.6">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -1784,7 +2132,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" ht="14.6">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -1793,7 +2141,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" ht="14.6">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -1802,7 +2150,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" ht="14.6">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -1811,7 +2159,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" ht="14.6">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -1820,7 +2168,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" ht="14.6">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -1829,7 +2177,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" ht="14.6">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -1838,7 +2186,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" ht="14.6">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -1847,7 +2195,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" ht="14.6">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -1856,7 +2204,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" ht="14.6">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -1865,7 +2213,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" ht="14.6">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -1874,7 +2222,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" ht="14.6">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -1883,7 +2231,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" ht="14.6">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -1892,7 +2240,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" ht="14.6">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -1901,7 +2249,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" ht="14.6">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -1910,7 +2258,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" ht="14.6">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -1919,7 +2267,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" ht="14.6">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -1928,7 +2276,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" ht="14.6">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -1937,7 +2285,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" ht="14.6">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -1946,7 +2294,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" ht="14.6">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -1955,7 +2303,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" ht="14.6">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -1964,7 +2312,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" ht="14.6">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -1973,7 +2321,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" ht="14.6">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -1982,7 +2330,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" ht="14.6">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -1991,7 +2339,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" ht="14.6">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2000,7 +2348,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" ht="14.6">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2009,7 +2357,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" ht="14.6">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2018,7 +2366,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" ht="14.6">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2027,7 +2375,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" ht="14.6">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2036,7 +2384,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" ht="14.6">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2045,7 +2393,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" ht="14.6">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2054,7 +2402,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" ht="14.6">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2063,7 +2411,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" ht="14.6">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2072,7 +2420,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" ht="14.6">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2081,7 +2429,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" ht="14.6">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2090,7 +2438,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" ht="14.6">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2099,7 +2447,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" ht="14.6">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2108,7 +2456,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" ht="14.6">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2117,7 +2465,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" ht="14.6">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2126,7 +2474,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" ht="14.6">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2135,7 +2483,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" ht="14.6">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2144,7 +2492,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" ht="14.6">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -2153,7 +2501,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" ht="14.6">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -2162,7 +2510,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" ht="14.6">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -2171,7 +2519,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" ht="14.6">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -2180,7 +2528,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" ht="14.6">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -2189,7 +2537,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" ht="14.6">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -2198,7 +2546,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" ht="14.6">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -2207,7 +2555,7 @@
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" ht="14.6">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -2216,7 +2564,7 @@
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" ht="14.6">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -2225,7 +2573,7 @@
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" ht="14.6">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -2234,7 +2582,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" ht="14.6">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2243,7 +2591,7 @@
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" ht="14.6">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -2252,7 +2600,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" ht="14.6">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -2261,7 +2609,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" ht="14.6">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -2270,7 +2618,7 @@
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" ht="14.6">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -2279,7 +2627,7 @@
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" ht="14.6">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -2288,7 +2636,7 @@
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" ht="14.6">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -2297,7 +2645,7 @@
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" ht="14.6">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -2306,7 +2654,7 @@
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" ht="14.6">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -2315,7 +2663,7 @@
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" ht="14.6">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -2324,7 +2672,7 @@
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" ht="14.6">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -2333,7 +2681,7 @@
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" ht="14.6">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -2342,7 +2690,7 @@
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" ht="14.6">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -2351,7 +2699,7 @@
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" ht="14.6">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -2360,7 +2708,7 @@
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" ht="14.6">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -2369,7 +2717,7 @@
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" ht="14.6">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -2378,7 +2726,7 @@
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" ht="14.6">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -2387,7 +2735,7 @@
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" ht="14.6">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -2396,7 +2744,7 @@
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" ht="14.6">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -2405,7 +2753,7 @@
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" ht="14.6">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -2414,7 +2762,7 @@
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" ht="14.6">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -2423,7 +2771,7 @@
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" ht="14.6">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -2432,7 +2780,7 @@
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" ht="14.6">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -2441,7 +2789,7 @@
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" ht="14.6">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -2450,7 +2798,7 @@
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" ht="14.6">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -2459,7 +2807,7 @@
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" ht="14.6">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -2468,7 +2816,7 @@
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" ht="14.6">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -2477,7 +2825,7 @@
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" ht="14.6">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -2486,7 +2834,7 @@
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" ht="14.6">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -2495,7 +2843,7 @@
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" ht="14.6">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -2504,7 +2852,7 @@
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" ht="14.6">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -2513,7 +2861,7 @@
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" ht="14.6">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -2522,7 +2870,7 @@
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" ht="14.6">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -2531,7 +2879,7 @@
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" ht="14.6">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -2540,7 +2888,7 @@
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" ht="14.6">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -2549,7 +2897,7 @@
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" ht="14.6">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -2558,7 +2906,7 @@
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" ht="14.6">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -2567,7 +2915,7 @@
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" ht="14.6">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -2576,7 +2924,7 @@
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" ht="14.6">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -2585,7 +2933,7 @@
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" ht="14.6">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -2594,7 +2942,7 @@
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" ht="14.6">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -2603,7 +2951,7 @@
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" ht="14.6">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -2612,7 +2960,7 @@
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" ht="14.6">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -2621,7 +2969,7 @@
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" ht="14.6">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -2630,7 +2978,7 @@
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" ht="14.6">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -2639,7 +2987,7 @@
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" ht="14.6">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -2648,7 +2996,7 @@
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" ht="14.6">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -2657,7 +3005,7 @@
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" ht="14.6">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -2666,7 +3014,7 @@
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" ht="14.6">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -2675,7 +3023,7 @@
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" ht="14.6">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -2684,7 +3032,7 @@
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" ht="14.6">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -2693,7 +3041,7 @@
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" ht="14.6">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -2702,7 +3050,7 @@
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" ht="14.6">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -2711,7 +3059,7 @@
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" ht="14.6">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -2720,7 +3068,7 @@
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" ht="14.6">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -2729,7 +3077,7 @@
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" ht="14.6">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -2738,7 +3086,7 @@
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" ht="14.6">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -2747,7 +3095,7 @@
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" ht="14.6">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -2756,7 +3104,7 @@
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" ht="14.6">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -2765,7 +3113,7 @@
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" ht="14.6">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -2774,7 +3122,7 @@
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" ht="14.6">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -2783,7 +3131,7 @@
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" ht="14.6">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -2792,7 +3140,7 @@
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" ht="14.6">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -2801,7 +3149,7 @@
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" ht="14.6">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -2810,7 +3158,7 @@
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" ht="14.6">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -2819,7 +3167,7 @@
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" ht="14.6">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -2828,7 +3176,7 @@
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" ht="14.6">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -2837,7 +3185,7 @@
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" ht="14.6">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -2846,7 +3194,7 @@
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" ht="14.6">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -2855,7 +3203,7 @@
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" ht="14.6">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -2864,7 +3212,7 @@
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:7" ht="14.6">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -2873,7 +3221,7 @@
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" ht="14.6">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -2882,7 +3230,7 @@
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:7" ht="14.6">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -2891,7 +3239,7 @@
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" ht="14.6">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -2900,7 +3248,7 @@
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:7" ht="14.6">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -2909,7 +3257,7 @@
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" ht="14.6">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -2918,7 +3266,7 @@
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:7" ht="14.6">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -2927,7 +3275,7 @@
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" ht="14.6">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -2936,7 +3284,7 @@
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" ht="14.6">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -2945,7 +3293,7 @@
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" ht="14.6">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -2954,7 +3302,7 @@
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" ht="14.6">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -2963,7 +3311,7 @@
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" ht="14.6">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -2972,7 +3320,7 @@
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" ht="14.6">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -2981,7 +3329,7 @@
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" ht="14.6">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -2990,7 +3338,7 @@
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:7" ht="14.6">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -2999,7 +3347,7 @@
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" ht="14.6">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -3008,7 +3356,7 @@
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:7" ht="14.6">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -3017,7 +3365,7 @@
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" ht="14.6">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -3026,7 +3374,7 @@
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" ht="14.6">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -3035,7 +3383,7 @@
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:7" ht="14.6">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -3044,7 +3392,7 @@
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" ht="14.6">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -3053,7 +3401,7 @@
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" ht="14.6">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -3062,7 +3410,7 @@
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:7" ht="14.6">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -3071,7 +3419,7 @@
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:7" ht="14.6">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -3080,7 +3428,7 @@
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:7" ht="14.6">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -3089,7 +3437,7 @@
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" ht="14.6">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -3098,7 +3446,7 @@
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:7" ht="14.6">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -3107,7 +3455,7 @@
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" ht="14.6">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -3116,7 +3464,7 @@
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:7" ht="14.6">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -3125,7 +3473,7 @@
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:7" ht="14.6">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -3134,7 +3482,7 @@
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:7" ht="14.6">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -3143,7 +3491,7 @@
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" ht="14.6">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -3152,7 +3500,7 @@
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:7" ht="14.6">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -3161,7 +3509,7 @@
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:7" ht="14.6">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -3170,7 +3518,7 @@
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:7" ht="14.6">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -3179,7 +3527,7 @@
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:7" ht="14.6">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -3188,7 +3536,7 @@
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" ht="14.6">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -3197,7 +3545,7 @@
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" ht="14.6">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -3206,7 +3554,7 @@
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:7" ht="14.6">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -3215,7 +3563,7 @@
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:7" ht="14.6">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -3224,7 +3572,7 @@
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:7" ht="14.6">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -3233,7 +3581,7 @@
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" ht="14.6">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -3242,7 +3590,7 @@
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" ht="14.6">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -3251,7 +3599,7 @@
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:7" ht="14.6">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -3260,7 +3608,7 @@
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:7" ht="14.6">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -3269,7 +3617,7 @@
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:7" ht="14.6">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -3278,7 +3626,7 @@
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:7" ht="14.6">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -3287,7 +3635,7 @@
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:7" ht="14.6">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -3296,7 +3644,7 @@
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:7" ht="14.6">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -3305,7 +3653,7 @@
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:7" ht="14.6">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -3314,7 +3662,7 @@
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:7" ht="14.6">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -3323,7 +3671,7 @@
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:7" ht="14.6">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -3332,7 +3680,7 @@
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:7" ht="14.6">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -3341,7 +3689,7 @@
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:7" ht="14.6">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -3350,7 +3698,7 @@
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:7" ht="14.6">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -3359,7 +3707,7 @@
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:7" ht="14.6">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -3368,7 +3716,7 @@
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:7" ht="14.6">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -3377,7 +3725,7 @@
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:7" ht="14.6">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -3386,7 +3734,7 @@
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:7" ht="14.6">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -3395,7 +3743,7 @@
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:7" ht="14.6">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -3404,7 +3752,7 @@
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:7" ht="14.6">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -3413,7 +3761,7 @@
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:7" ht="14.6">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -3422,7 +3770,7 @@
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:7" ht="14.6">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -3431,7 +3779,7 @@
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:7" ht="14.6">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -3440,7 +3788,7 @@
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:7" ht="14.6">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -3449,7 +3797,7 @@
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:7" ht="14.6">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -3458,7 +3806,7 @@
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:7" ht="14.6">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -3467,7 +3815,7 @@
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:7" ht="14.6">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -3476,7 +3824,7 @@
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:7" ht="14.6">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -3485,7 +3833,7 @@
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:7" ht="14.6">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -3494,7 +3842,7 @@
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:7" ht="14.6">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -3503,7 +3851,7 @@
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:7" ht="14.6">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -3512,7 +3860,7 @@
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:7" ht="14.6">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -3521,7 +3869,7 @@
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:7" ht="14.6">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -3530,7 +3878,7 @@
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:7" ht="14.6">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -3539,7 +3887,7 @@
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:7" ht="14.6">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -3548,7 +3896,7 @@
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:7" ht="14.6">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -3557,7 +3905,7 @@
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:7" ht="14.6">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -3566,7 +3914,7 @@
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:7" ht="14.6">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -3575,7 +3923,7 @@
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:7" ht="14.6">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -3584,7 +3932,7 @@
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:7" ht="14.6">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -3593,7 +3941,7 @@
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:7" ht="14.6">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -3602,7 +3950,7 @@
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:7" ht="14.6">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -3611,7 +3959,7 @@
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:7" ht="14.6">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -3620,7 +3968,7 @@
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:7" ht="14.6">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -3629,7 +3977,7 @@
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:7" ht="14.6">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -3638,7 +3986,7 @@
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:7" ht="14.6">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -3647,7 +3995,7 @@
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:7" ht="14.6">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -3656,7 +4004,7 @@
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:7" ht="14.6">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -3665,7 +4013,7 @@
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:7" ht="14.6">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -3674,7 +4022,7 @@
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:7" ht="14.6">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -3683,7 +4031,7 @@
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:7" ht="14.6">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -3692,7 +4040,7 @@
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:7" ht="14.6">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -3701,7 +4049,7 @@
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:7" ht="14.6">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -3710,7 +4058,7 @@
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:7" ht="14.6">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -3719,7 +4067,7 @@
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:7" ht="14.6">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -3728,7 +4076,7 @@
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:7" ht="14.6">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -3737,7 +4085,7 @@
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:7" ht="14.6">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -3746,7 +4094,7 @@
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:7" ht="14.6">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -3755,7 +4103,7 @@
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:7" ht="14.6">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -3764,7 +4112,7 @@
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:7" ht="14.6">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -3773,7 +4121,7 @@
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:7" ht="14.6">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -3782,7 +4130,7 @@
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:7" ht="14.6">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -3791,7 +4139,7 @@
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:7" ht="14.6">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -3800,7 +4148,7 @@
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:7" ht="14.6">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -3809,7 +4157,7 @@
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:7" ht="14.6">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -3818,7 +4166,7 @@
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:7" ht="14.6">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -3827,7 +4175,7 @@
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:7" ht="14.6">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -3836,7 +4184,7 @@
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:7" ht="14.6">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -3845,7 +4193,7 @@
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:7" ht="14.6">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -3854,7 +4202,7 @@
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:7" ht="14.6">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -3863,7 +4211,7 @@
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:7" ht="14.6">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -3872,7 +4220,7 @@
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:7" ht="14.6">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -3881,7 +4229,7 @@
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:7" ht="14.6">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -3890,7 +4238,7 @@
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:7" ht="14.6">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -3899,7 +4247,7 @@
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:7" ht="14.6">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -3908,7 +4256,7 @@
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:7" ht="14.6">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -3917,7 +4265,7 @@
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:7" ht="14.6">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -3926,7 +4274,7 @@
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:7" ht="14.6">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -3935,7 +4283,7 @@
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:7" ht="14.6">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -3944,7 +4292,7 @@
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:7" ht="14.6">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -3953,7 +4301,7 @@
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:7" ht="14.6">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -3962,7 +4310,7 @@
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:7" ht="14.6">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -3971,7 +4319,7 @@
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:7" ht="14.6">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -3980,7 +4328,7 @@
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:7" ht="14.6">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -3989,7 +4337,7 @@
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:7" ht="14.6">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -3998,7 +4346,7 @@
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:7" ht="14.6">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -4007,7 +4355,7 @@
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:7" ht="14.6">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -4016,7 +4364,7 @@
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:7" ht="14.6">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -4025,7 +4373,7 @@
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:7" ht="14.6">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -4034,7 +4382,7 @@
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:7" ht="14.6">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -4043,7 +4391,7 @@
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:7" ht="14.6">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -4052,7 +4400,7 @@
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:7" ht="14.6">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -4061,7 +4409,7 @@
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:7" ht="14.6">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -4070,7 +4418,7 @@
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:7" ht="14.6">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -4079,7 +4427,7 @@
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:7" ht="14.6">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -4088,7 +4436,7 @@
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:7" ht="14.6">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -4097,7 +4445,7 @@
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:7" ht="14.6">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -4106,7 +4454,7 @@
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:7" ht="14.6">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -4115,7 +4463,7 @@
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:7" ht="14.6">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -4124,7 +4472,7 @@
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:7" ht="14.6">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -4133,7 +4481,7 @@
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:7" ht="14.6">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -4142,7 +4490,7 @@
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:7" ht="14.6">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -4151,7 +4499,7 @@
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:7" ht="14.6">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -4160,7 +4508,7 @@
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:7" ht="14.6">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -4169,7 +4517,7 @@
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:7" ht="14.6">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -4178,7 +4526,7 @@
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:7" ht="14.6">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -4187,7 +4535,7 @@
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:7" ht="14.6">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -4196,7 +4544,7 @@
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:7" ht="14.6">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -4205,7 +4553,7 @@
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:7" ht="14.6">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -4214,7 +4562,7 @@
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:7" ht="14.6">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -4223,7 +4571,7 @@
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:7" ht="14.6">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -4232,7 +4580,7 @@
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:7" ht="14.6">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -4241,7 +4589,7 @@
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:7" ht="14.6">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -4250,7 +4598,7 @@
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:7" ht="14.6">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -4259,7 +4607,7 @@
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:7" ht="14.6">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -4268,7 +4616,7 @@
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:7" ht="14.6">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -4277,7 +4625,7 @@
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:7" ht="14.6">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -4286,7 +4634,7 @@
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:7" ht="14.6">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -4295,7 +4643,7 @@
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:7" ht="14.6">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -4304,7 +4652,7 @@
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:7" ht="14.6">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -4313,7 +4661,7 @@
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:7" ht="14.6">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -4322,7 +4670,7 @@
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:7" ht="14.6">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -4331,7 +4679,7 @@
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:7" ht="14.6">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -4340,7 +4688,7 @@
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:7" ht="14.6">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -4349,7 +4697,7 @@
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:7" ht="14.6">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -4358,7 +4706,7 @@
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:7" ht="14.6">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -4367,7 +4715,7 @@
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:7" ht="14.6">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -4376,7 +4724,7 @@
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:7" ht="14.6">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -4385,7 +4733,7 @@
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:7" ht="14.6">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -4394,7 +4742,7 @@
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:7" ht="14.6">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -4403,7 +4751,7 @@
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:7" ht="14.6">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -4412,7 +4760,7 @@
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:7" ht="14.6">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -4421,7 +4769,7 @@
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:7" ht="14.6">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -4430,7 +4778,7 @@
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:7" ht="14.6">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -4439,7 +4787,7 @@
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:7" ht="14.6">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -4448,7 +4796,7 @@
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:7" ht="14.6">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -4457,7 +4805,7 @@
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:7" ht="14.6">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -4466,7 +4814,7 @@
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:7" ht="14.6">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -4475,7 +4823,7 @@
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:7" ht="14.6">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -4484,7 +4832,7 @@
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:7" ht="14.6">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -4493,7 +4841,7 @@
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:7" ht="14.6">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -4502,7 +4850,7 @@
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:7" ht="14.6">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -4511,7 +4859,7 @@
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:7" ht="14.6">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -4520,7 +4868,7 @@
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:7" ht="14.6">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -4529,7 +4877,7 @@
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:7" ht="14.6">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -4538,7 +4886,7 @@
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:7" ht="14.6">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -4547,7 +4895,7 @@
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:7" ht="14.6">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -4556,7 +4904,7 @@
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:7" ht="14.6">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -4565,7 +4913,7 @@
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:7" ht="14.6">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -4574,7 +4922,7 @@
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:7" ht="14.6">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -4583,7 +4931,7 @@
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:7" ht="14.6">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -4592,7 +4940,7 @@
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:7" ht="14.6">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -4601,7 +4949,7 @@
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:7" ht="14.6">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -4610,7 +4958,7 @@
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:7" ht="14.6">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -4619,7 +4967,7 @@
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:7" ht="14.6">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -4628,7 +4976,7 @@
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:7" ht="14.6">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -4637,7 +4985,7 @@
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:7" ht="14.6">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -4646,7 +4994,7 @@
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:7" ht="14.6">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -4655,7 +5003,7 @@
       <c r="F499" s="2"/>
       <c r="G499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:7" ht="14.6">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -4664,7 +5012,7 @@
       <c r="F500" s="2"/>
       <c r="G500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:7" ht="14.6">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -4673,7 +5021,7 @@
       <c r="F501" s="2"/>
       <c r="G501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:7" ht="14.6">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -4682,7 +5030,7 @@
       <c r="F502" s="2"/>
       <c r="G502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:7" ht="14.6">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -4691,7 +5039,7 @@
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:7" ht="14.6">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -4700,7 +5048,7 @@
       <c r="F504" s="2"/>
       <c r="G504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:7" ht="14.6">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -4709,7 +5057,7 @@
       <c r="F505" s="2"/>
       <c r="G505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:7" ht="14.6">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -4718,7 +5066,7 @@
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:7" ht="14.6">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -4727,7 +5075,7 @@
       <c r="F507" s="2"/>
       <c r="G507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:7" ht="14.6">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -4736,7 +5084,7 @@
       <c r="F508" s="2"/>
       <c r="G508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:7" ht="14.6">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -4745,7 +5093,7 @@
       <c r="F509" s="2"/>
       <c r="G509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:7" ht="14.6">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -4754,7 +5102,7 @@
       <c r="F510" s="2"/>
       <c r="G510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:7" ht="14.6">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -4763,7 +5111,7 @@
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:7" ht="14.6">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -4772,7 +5120,7 @@
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:7" ht="14.6">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -4781,7 +5129,7 @@
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:7" ht="14.6">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -4790,7 +5138,7 @@
       <c r="F514" s="2"/>
       <c r="G514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:7" ht="14.6">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -4799,7 +5147,7 @@
       <c r="F515" s="2"/>
       <c r="G515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:7" ht="14.6">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -4808,7 +5156,7 @@
       <c r="F516" s="2"/>
       <c r="G516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:7" ht="14.6">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -4817,7 +5165,7 @@
       <c r="F517" s="2"/>
       <c r="G517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:7" ht="14.6">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -4826,7 +5174,7 @@
       <c r="F518" s="2"/>
       <c r="G518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:7" ht="14.6">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -4835,7 +5183,7 @@
       <c r="F519" s="2"/>
       <c r="G519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:7" ht="14.6">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -4844,7 +5192,7 @@
       <c r="F520" s="2"/>
       <c r="G520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:7" ht="14.6">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -4853,7 +5201,7 @@
       <c r="F521" s="2"/>
       <c r="G521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:7" ht="14.6">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -4862,7 +5210,7 @@
       <c r="F522" s="2"/>
       <c r="G522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:7" ht="14.6">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -4871,7 +5219,7 @@
       <c r="F523" s="2"/>
       <c r="G523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:7" ht="14.6">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -4880,7 +5228,7 @@
       <c r="F524" s="2"/>
       <c r="G524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:7" ht="14.6">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -4889,7 +5237,7 @@
       <c r="F525" s="2"/>
       <c r="G525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:7" ht="14.6">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -4898,7 +5246,7 @@
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:7" ht="14.6">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -4907,7 +5255,7 @@
       <c r="F527" s="2"/>
       <c r="G527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:7" ht="14.6">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -4916,7 +5264,7 @@
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:7" ht="14.6">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -4925,7 +5273,7 @@
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:7" ht="14.6">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -4934,7 +5282,7 @@
       <c r="F530" s="2"/>
       <c r="G530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:7" ht="14.6">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -4943,7 +5291,7 @@
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:7" ht="14.6">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -4952,7 +5300,7 @@
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:7" ht="14.6">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -4961,7 +5309,7 @@
       <c r="F533" s="2"/>
       <c r="G533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:7" ht="14.6">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -4970,7 +5318,7 @@
       <c r="F534" s="2"/>
       <c r="G534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:7" ht="14.6">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -4979,7 +5327,7 @@
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:7" ht="14.6">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -4988,7 +5336,7 @@
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:7" ht="14.6">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -4997,7 +5345,7 @@
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:7" ht="14.6">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -5006,7 +5354,7 @@
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:7" ht="14.6">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -5015,7 +5363,7 @@
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:7" ht="14.6">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -5024,7 +5372,7 @@
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:7" ht="14.6">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -5033,7 +5381,7 @@
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:7" ht="14.6">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -5042,7 +5390,7 @@
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:7" ht="14.6">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -5051,7 +5399,7 @@
       <c r="F543" s="2"/>
       <c r="G543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:7" ht="14.6">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -5060,7 +5408,7 @@
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:7" ht="14.6">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -5069,7 +5417,7 @@
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:7" ht="14.6">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -5078,7 +5426,7 @@
       <c r="F546" s="2"/>
       <c r="G546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:7" ht="14.6">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -5087,7 +5435,7 @@
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:7" ht="14.6">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -5096,7 +5444,7 @@
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:7" ht="14.6">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -5105,7 +5453,7 @@
       <c r="F549" s="2"/>
       <c r="G549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:7" ht="14.6">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -5114,7 +5462,7 @@
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:7" ht="14.6">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -5123,7 +5471,7 @@
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:7" ht="14.6">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -5132,7 +5480,7 @@
       <c r="F552" s="2"/>
       <c r="G552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:7" ht="14.6">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -5141,7 +5489,7 @@
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:7" ht="14.6">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -5150,7 +5498,7 @@
       <c r="F554" s="2"/>
       <c r="G554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:7" ht="14.6">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -5159,7 +5507,7 @@
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:7" ht="14.6">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -5168,7 +5516,7 @@
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:7" ht="14.6">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -5177,7 +5525,7 @@
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:7" ht="14.6">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -5186,7 +5534,7 @@
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:7" ht="14.6">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -5195,7 +5543,7 @@
       <c r="F559" s="2"/>
       <c r="G559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:7" ht="14.6">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -5204,7 +5552,7 @@
       <c r="F560" s="2"/>
       <c r="G560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:7" ht="14.6">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -5213,7 +5561,7 @@
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:7" ht="14.6">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -5222,7 +5570,7 @@
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:7" ht="14.6">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -5231,7 +5579,7 @@
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:7" ht="14.6">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -5240,7 +5588,7 @@
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:7" ht="14.6">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -5249,7 +5597,7 @@
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:7" ht="14.6">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -5258,7 +5606,7 @@
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:7" ht="14.6">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -5267,7 +5615,7 @@
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:7" ht="14.6">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -5276,7 +5624,7 @@
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:7" ht="14.6">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -5285,7 +5633,7 @@
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:7" ht="14.6">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -5294,7 +5642,7 @@
       <c r="F570" s="2"/>
       <c r="G570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:7" ht="14.6">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -5303,7 +5651,7 @@
       <c r="F571" s="2"/>
       <c r="G571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:7" ht="14.6">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -5312,7 +5660,7 @@
       <c r="F572" s="2"/>
       <c r="G572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:7" ht="14.6">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -5321,7 +5669,7 @@
       <c r="F573" s="2"/>
       <c r="G573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:7" ht="14.6">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -5330,7 +5678,7 @@
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:7" ht="14.6">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -5339,7 +5687,7 @@
       <c r="F575" s="2"/>
       <c r="G575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:7" ht="14.6">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -5348,7 +5696,7 @@
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:7" ht="14.6">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -5357,7 +5705,7 @@
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:7" ht="14.6">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -5366,7 +5714,7 @@
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:7" ht="14.6">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -5375,7 +5723,7 @@
       <c r="F579" s="2"/>
       <c r="G579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:7" ht="14.6">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -5384,7 +5732,7 @@
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:7" ht="14.6">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -5393,7 +5741,7 @@
       <c r="F581" s="2"/>
       <c r="G581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:7" ht="14.6">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -5402,7 +5750,7 @@
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:7" ht="14.6">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -5411,7 +5759,7 @@
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:7" ht="14.6">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -5420,7 +5768,7 @@
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:7" ht="14.6">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -5429,7 +5777,7 @@
       <c r="F585" s="2"/>
       <c r="G585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:7" ht="14.6">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -5438,7 +5786,7 @@
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:7" ht="14.6">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -5447,7 +5795,7 @@
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:7" ht="14.6">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -5456,7 +5804,7 @@
       <c r="F588" s="2"/>
       <c r="G588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:7" ht="14.6">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -5465,7 +5813,7 @@
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:7" ht="14.6">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -5474,7 +5822,7 @@
       <c r="F590" s="2"/>
       <c r="G590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:7" ht="14.6">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -5483,7 +5831,7 @@
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:7" ht="14.6">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -5492,7 +5840,7 @@
       <c r="F592" s="2"/>
       <c r="G592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:7" ht="14.6">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -5501,7 +5849,7 @@
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:7" ht="14.6">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -5510,7 +5858,7 @@
       <c r="F594" s="2"/>
       <c r="G594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:7" ht="14.6">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -5519,7 +5867,7 @@
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:7" ht="14.6">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -5528,7 +5876,7 @@
       <c r="F596" s="2"/>
       <c r="G596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:7" ht="14.6">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -5537,7 +5885,7 @@
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:7" ht="14.6">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -5546,7 +5894,7 @@
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:7" ht="14.6">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -5555,7 +5903,7 @@
       <c r="F599" s="2"/>
       <c r="G599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:7" ht="14.6">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -5564,7 +5912,7 @@
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:7" ht="14.6">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -5573,7 +5921,7 @@
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:7" ht="14.6">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -5582,7 +5930,7 @@
       <c r="F602" s="2"/>
       <c r="G602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:7" ht="14.6">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -5591,7 +5939,7 @@
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:7" ht="14.6">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -5600,7 +5948,7 @@
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:7" ht="14.6">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -5609,7 +5957,7 @@
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:7" ht="14.6">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -5618,7 +5966,7 @@
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:7" ht="14.6">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -5627,7 +5975,7 @@
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:7" ht="14.6">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -5636,7 +5984,7 @@
       <c r="F608" s="2"/>
       <c r="G608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:7" ht="14.6">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -5645,7 +5993,7 @@
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:7" ht="14.6">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -5654,7 +6002,7 @@
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:7" ht="14.6">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -5663,7 +6011,7 @@
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:7" ht="14.6">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -5672,7 +6020,7 @@
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:7" ht="14.6">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -5681,7 +6029,7 @@
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:7" ht="14.6">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -5690,7 +6038,7 @@
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:7" ht="14.6">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -5699,7 +6047,7 @@
       <c r="F615" s="2"/>
       <c r="G615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:7" ht="14.6">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -5708,7 +6056,7 @@
       <c r="F616" s="2"/>
       <c r="G616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:7" ht="14.6">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -5717,7 +6065,7 @@
       <c r="F617" s="2"/>
       <c r="G617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:7" ht="14.6">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -5726,7 +6074,7 @@
       <c r="F618" s="2"/>
       <c r="G618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:7" ht="14.6">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -5735,7 +6083,7 @@
       <c r="F619" s="2"/>
       <c r="G619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:7" ht="14.6">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -5744,7 +6092,7 @@
       <c r="F620" s="2"/>
       <c r="G620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:7" ht="14.6">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -5753,7 +6101,7 @@
       <c r="F621" s="2"/>
       <c r="G621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:7" ht="14.6">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -5762,7 +6110,7 @@
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:7" ht="14.6">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -5771,7 +6119,7 @@
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:7" ht="14.6">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -5780,7 +6128,7 @@
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:7" ht="14.6">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -5789,7 +6137,7 @@
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:7" ht="14.6">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -5798,7 +6146,7 @@
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:7" ht="14.6">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -5807,7 +6155,7 @@
       <c r="F627" s="2"/>
       <c r="G627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:7" ht="14.6">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -5816,7 +6164,7 @@
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:7" ht="14.6">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -5825,7 +6173,7 @@
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:7" ht="14.6">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -5834,7 +6182,7 @@
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:7" ht="14.6">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -5843,7 +6191,7 @@
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:7" ht="14.6">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -5852,7 +6200,7 @@
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:7" ht="14.6">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -5861,7 +6209,7 @@
       <c r="F633" s="2"/>
       <c r="G633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:7" ht="14.6">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -5870,7 +6218,7 @@
       <c r="F634" s="2"/>
       <c r="G634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:7" ht="14.6">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -5879,7 +6227,7 @@
       <c r="F635" s="2"/>
       <c r="G635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:7" ht="14.6">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -5888,7 +6236,7 @@
       <c r="F636" s="2"/>
       <c r="G636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:7" ht="14.6">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -5897,7 +6245,7 @@
       <c r="F637" s="2"/>
       <c r="G637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:7" ht="14.6">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -5906,7 +6254,7 @@
       <c r="F638" s="2"/>
       <c r="G638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:7" ht="14.6">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -5915,7 +6263,7 @@
       <c r="F639" s="2"/>
       <c r="G639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:7" ht="14.6">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -5924,7 +6272,7 @@
       <c r="F640" s="2"/>
       <c r="G640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:7" ht="14.6">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -5933,7 +6281,7 @@
       <c r="F641" s="2"/>
       <c r="G641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:7" ht="14.6">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -5942,7 +6290,7 @@
       <c r="F642" s="2"/>
       <c r="G642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:7" ht="14.6">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -5951,7 +6299,7 @@
       <c r="F643" s="2"/>
       <c r="G643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:7" ht="14.6">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -5960,7 +6308,7 @@
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:7" ht="14.6">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -5969,7 +6317,7 @@
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:7" ht="14.6">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -5978,7 +6326,7 @@
       <c r="F646" s="2"/>
       <c r="G646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:7" ht="14.6">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -5987,7 +6335,7 @@
       <c r="F647" s="2"/>
       <c r="G647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:7" ht="14.6">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -5996,7 +6344,7 @@
       <c r="F648" s="2"/>
       <c r="G648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:7" ht="14.6">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -6005,7 +6353,7 @@
       <c r="F649" s="2"/>
       <c r="G649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:7" ht="14.6">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -6014,7 +6362,7 @@
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:7" ht="14.6">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -6023,7 +6371,7 @@
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:7" ht="14.6">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -6032,7 +6380,7 @@
       <c r="F652" s="2"/>
       <c r="G652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:7" ht="14.6">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -6041,7 +6389,7 @@
       <c r="F653" s="2"/>
       <c r="G653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:7" ht="14.6">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -6050,7 +6398,7 @@
       <c r="F654" s="2"/>
       <c r="G654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:7" ht="14.6">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -6059,7 +6407,7 @@
       <c r="F655" s="2"/>
       <c r="G655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:7" ht="14.6">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -6068,7 +6416,7 @@
       <c r="F656" s="2"/>
       <c r="G656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:7" ht="14.6">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -6077,7 +6425,7 @@
       <c r="F657" s="2"/>
       <c r="G657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:7" ht="14.6">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -6086,7 +6434,7 @@
       <c r="F658" s="2"/>
       <c r="G658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:7" ht="14.6">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -6095,7 +6443,7 @@
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:7" ht="14.6">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -6104,7 +6452,7 @@
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:7" ht="14.6">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -6113,7 +6461,7 @@
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:7" ht="14.6">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -6122,7 +6470,7 @@
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:7" ht="14.6">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -6131,7 +6479,7 @@
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:7" ht="14.6">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -6140,7 +6488,7 @@
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:7" ht="14.6">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -6149,7 +6497,7 @@
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:7" ht="14.6">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -6158,7 +6506,7 @@
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:7" ht="14.6">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -6167,7 +6515,7 @@
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:7" ht="14.6">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -6176,7 +6524,7 @@
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:7" ht="14.6">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -6185,7 +6533,7 @@
       <c r="F669" s="2"/>
       <c r="G669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:7" ht="14.6">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -6194,7 +6542,7 @@
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:7" ht="14.6">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -6203,7 +6551,7 @@
       <c r="F671" s="2"/>
       <c r="G671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:7" ht="14.6">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -6212,7 +6560,7 @@
       <c r="F672" s="2"/>
       <c r="G672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:7" ht="14.6">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -6221,7 +6569,7 @@
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:7" ht="14.6">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -6230,7 +6578,7 @@
       <c r="F674" s="2"/>
       <c r="G674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:7" ht="14.6">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -6239,7 +6587,7 @@
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:7" ht="14.6">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -6248,7 +6596,7 @@
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:7" ht="14.6">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -6257,7 +6605,7 @@
       <c r="F677" s="2"/>
       <c r="G677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:7" ht="14.6">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -6266,7 +6614,7 @@
       <c r="F678" s="2"/>
       <c r="G678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:7" ht="14.6">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -6275,7 +6623,7 @@
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:7" ht="14.6">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -6284,7 +6632,7 @@
       <c r="F680" s="2"/>
       <c r="G680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:7" ht="14.6">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -6293,7 +6641,7 @@
       <c r="F681" s="2"/>
       <c r="G681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:7" ht="14.6">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -6302,7 +6650,7 @@
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:7" ht="14.6">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -6311,7 +6659,7 @@
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:7" ht="14.6">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -6320,7 +6668,7 @@
       <c r="F684" s="2"/>
       <c r="G684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:7" ht="14.6">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -6329,7 +6677,7 @@
       <c r="F685" s="2"/>
       <c r="G685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:7" ht="14.6">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -6338,7 +6686,7 @@
       <c r="F686" s="2"/>
       <c r="G686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:7" ht="14.6">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -6347,7 +6695,7 @@
       <c r="F687" s="2"/>
       <c r="G687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:7" ht="14.6">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -6356,7 +6704,7 @@
       <c r="F688" s="2"/>
       <c r="G688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:7" ht="14.6">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -6365,7 +6713,7 @@
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:7" ht="14.6">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -6374,7 +6722,7 @@
       <c r="F690" s="2"/>
       <c r="G690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:7" ht="14.6">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -6383,7 +6731,7 @@
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:7" ht="14.6">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -6392,7 +6740,7 @@
       <c r="F692" s="2"/>
       <c r="G692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:7" ht="14.6">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -6401,7 +6749,7 @@
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:7" ht="14.6">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -6410,7 +6758,7 @@
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:7" ht="14.6">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -6419,7 +6767,7 @@
       <c r="F695" s="2"/>
       <c r="G695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:7" ht="14.6">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -6428,7 +6776,7 @@
       <c r="F696" s="2"/>
       <c r="G696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:7" ht="14.6">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -6437,7 +6785,7 @@
       <c r="F697" s="2"/>
       <c r="G697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:7" ht="14.6">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -6446,7 +6794,7 @@
       <c r="F698" s="2"/>
       <c r="G698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:7" ht="14.6">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -6455,7 +6803,7 @@
       <c r="F699" s="2"/>
       <c r="G699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:7" ht="14.6">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -6464,7 +6812,7 @@
       <c r="F700" s="2"/>
       <c r="G700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:7" ht="14.6">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -6473,7 +6821,7 @@
       <c r="F701" s="2"/>
       <c r="G701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:7" ht="14.6">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -6482,7 +6830,7 @@
       <c r="F702" s="2"/>
       <c r="G702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:7" ht="14.6">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -6491,7 +6839,7 @@
       <c r="F703" s="2"/>
       <c r="G703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:7" ht="14.6">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -6500,7 +6848,7 @@
       <c r="F704" s="2"/>
       <c r="G704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:7" ht="14.6">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -6509,7 +6857,7 @@
       <c r="F705" s="2"/>
       <c r="G705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:7" ht="14.6">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -6518,7 +6866,7 @@
       <c r="F706" s="2"/>
       <c r="G706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:7" ht="14.6">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -6527,7 +6875,7 @@
       <c r="F707" s="2"/>
       <c r="G707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:7" ht="14.6">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -6536,7 +6884,7 @@
       <c r="F708" s="2"/>
       <c r="G708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:7" ht="14.6">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -6545,7 +6893,7 @@
       <c r="F709" s="2"/>
       <c r="G709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:7" ht="14.6">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -6554,7 +6902,7 @@
       <c r="F710" s="2"/>
       <c r="G710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:7" ht="14.6">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -6563,7 +6911,7 @@
       <c r="F711" s="2"/>
       <c r="G711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:7" ht="14.6">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -6572,7 +6920,7 @@
       <c r="F712" s="2"/>
       <c r="G712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:7" ht="14.6">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -6581,7 +6929,7 @@
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:7" ht="14.6">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -6590,7 +6938,7 @@
       <c r="F714" s="2"/>
       <c r="G714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:7" ht="14.6">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -6599,7 +6947,7 @@
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:7" ht="14.6">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -6608,7 +6956,7 @@
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:7" ht="14.6">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -6617,7 +6965,7 @@
       <c r="F717" s="2"/>
       <c r="G717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:7" ht="14.6">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -6626,7 +6974,7 @@
       <c r="F718" s="2"/>
       <c r="G718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:7" ht="14.6">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -6635,7 +6983,7 @@
       <c r="F719" s="2"/>
       <c r="G719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:7" ht="14.6">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -6644,7 +6992,7 @@
       <c r="F720" s="2"/>
       <c r="G720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:7" ht="14.6">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -6653,7 +7001,7 @@
       <c r="F721" s="2"/>
       <c r="G721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:7" ht="14.6">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -6662,7 +7010,7 @@
       <c r="F722" s="2"/>
       <c r="G722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:7" ht="14.6">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -6671,7 +7019,7 @@
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:7" ht="14.6">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -6680,7 +7028,7 @@
       <c r="F724" s="2"/>
       <c r="G724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:7" ht="14.6">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -6689,7 +7037,7 @@
       <c r="F725" s="2"/>
       <c r="G725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:7" ht="14.6">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -6698,7 +7046,7 @@
       <c r="F726" s="2"/>
       <c r="G726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:7" ht="14.6">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -6707,7 +7055,7 @@
       <c r="F727" s="2"/>
       <c r="G727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:7" ht="14.6">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -6716,7 +7064,7 @@
       <c r="F728" s="2"/>
       <c r="G728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:7" ht="14.6">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -6725,7 +7073,7 @@
       <c r="F729" s="2"/>
       <c r="G729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:7" ht="14.6">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -6734,7 +7082,7 @@
       <c r="F730" s="2"/>
       <c r="G730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:7" ht="14.6">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -6743,7 +7091,7 @@
       <c r="F731" s="2"/>
       <c r="G731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:7" ht="14.6">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -6752,7 +7100,7 @@
       <c r="F732" s="2"/>
       <c r="G732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:7" ht="14.6">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -6761,7 +7109,7 @@
       <c r="F733" s="2"/>
       <c r="G733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:7" ht="14.6">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -6770,7 +7118,7 @@
       <c r="F734" s="2"/>
       <c r="G734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:7" ht="14.6">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -6779,7 +7127,7 @@
       <c r="F735" s="2"/>
       <c r="G735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:7" ht="14.6">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -6788,7 +7136,7 @@
       <c r="F736" s="2"/>
       <c r="G736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:7" ht="14.6">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -6797,7 +7145,7 @@
       <c r="F737" s="2"/>
       <c r="G737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:7" ht="14.6">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -6806,7 +7154,7 @@
       <c r="F738" s="2"/>
       <c r="G738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:7" ht="14.6">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -6815,7 +7163,7 @@
       <c r="F739" s="2"/>
       <c r="G739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:7" ht="14.6">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -6824,7 +7172,7 @@
       <c r="F740" s="2"/>
       <c r="G740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:7" ht="14.6">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -6833,7 +7181,7 @@
       <c r="F741" s="2"/>
       <c r="G741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:7" ht="14.6">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -6842,7 +7190,7 @@
       <c r="F742" s="2"/>
       <c r="G742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:7" ht="14.6">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -6851,7 +7199,7 @@
       <c r="F743" s="2"/>
       <c r="G743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:7" ht="14.6">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -6860,7 +7208,7 @@
       <c r="F744" s="2"/>
       <c r="G744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:7" ht="14.6">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -6869,7 +7217,7 @@
       <c r="F745" s="2"/>
       <c r="G745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:7" ht="14.6">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -6878,7 +7226,7 @@
       <c r="F746" s="2"/>
       <c r="G746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:7" ht="14.6">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -6887,7 +7235,7 @@
       <c r="F747" s="2"/>
       <c r="G747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:7" ht="14.6">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -6896,7 +7244,7 @@
       <c r="F748" s="2"/>
       <c r="G748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:7" ht="14.6">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -6905,7 +7253,7 @@
       <c r="F749" s="2"/>
       <c r="G749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:7" ht="14.6">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -6914,7 +7262,7 @@
       <c r="F750" s="2"/>
       <c r="G750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:7" ht="14.6">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -6923,7 +7271,7 @@
       <c r="F751" s="2"/>
       <c r="G751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:7" ht="14.6">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -6932,7 +7280,7 @@
       <c r="F752" s="2"/>
       <c r="G752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:7" ht="14.6">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -6941,7 +7289,7 @@
       <c r="F753" s="2"/>
       <c r="G753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:7" ht="14.6">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -6950,7 +7298,7 @@
       <c r="F754" s="2"/>
       <c r="G754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:7" ht="14.6">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -6959,7 +7307,7 @@
       <c r="F755" s="2"/>
       <c r="G755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:7" ht="14.6">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -6968,7 +7316,7 @@
       <c r="F756" s="2"/>
       <c r="G756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:7" ht="14.6">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -6977,7 +7325,7 @@
       <c r="F757" s="2"/>
       <c r="G757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:7" ht="14.6">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -6986,7 +7334,7 @@
       <c r="F758" s="2"/>
       <c r="G758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:7" ht="14.6">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -6995,7 +7343,7 @@
       <c r="F759" s="2"/>
       <c r="G759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:7" ht="14.6">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -7004,7 +7352,7 @@
       <c r="F760" s="2"/>
       <c r="G760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:7" ht="14.6">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -7013,7 +7361,7 @@
       <c r="F761" s="2"/>
       <c r="G761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:7" ht="14.6">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -7022,7 +7370,7 @@
       <c r="F762" s="2"/>
       <c r="G762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:7" ht="14.6">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -7031,7 +7379,7 @@
       <c r="F763" s="2"/>
       <c r="G763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:7" ht="14.6">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -7040,7 +7388,7 @@
       <c r="F764" s="2"/>
       <c r="G764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:7" ht="14.6">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -7049,7 +7397,7 @@
       <c r="F765" s="2"/>
       <c r="G765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:7" ht="14.6">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -7058,7 +7406,7 @@
       <c r="F766" s="2"/>
       <c r="G766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:7" ht="14.6">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -7067,7 +7415,7 @@
       <c r="F767" s="2"/>
       <c r="G767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:7" ht="14.6">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -7076,7 +7424,7 @@
       <c r="F768" s="2"/>
       <c r="G768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:7" ht="14.6">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -7085,7 +7433,7 @@
       <c r="F769" s="2"/>
       <c r="G769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:7" ht="14.6">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -7094,7 +7442,7 @@
       <c r="F770" s="2"/>
       <c r="G770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:7" ht="14.6">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -7103,7 +7451,7 @@
       <c r="F771" s="2"/>
       <c r="G771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:7" ht="14.6">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -7112,7 +7460,7 @@
       <c r="F772" s="2"/>
       <c r="G772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:7" ht="14.6">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -7121,7 +7469,7 @@
       <c r="F773" s="2"/>
       <c r="G773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:7" ht="14.6">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -7130,7 +7478,7 @@
       <c r="F774" s="2"/>
       <c r="G774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:7" ht="14.6">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -7139,7 +7487,7 @@
       <c r="F775" s="2"/>
       <c r="G775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:7" ht="14.6">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -7148,7 +7496,7 @@
       <c r="F776" s="2"/>
       <c r="G776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:7" ht="14.6">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -7157,7 +7505,7 @@
       <c r="F777" s="2"/>
       <c r="G777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:7" ht="14.6">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -7166,7 +7514,7 @@
       <c r="F778" s="2"/>
       <c r="G778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:7" ht="14.6">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -7175,7 +7523,7 @@
       <c r="F779" s="2"/>
       <c r="G779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:7" ht="14.6">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -7184,7 +7532,7 @@
       <c r="F780" s="2"/>
       <c r="G780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:7" ht="14.6">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -7193,7 +7541,7 @@
       <c r="F781" s="2"/>
       <c r="G781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:7" ht="14.6">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -7202,7 +7550,7 @@
       <c r="F782" s="2"/>
       <c r="G782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:7" ht="14.6">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -7211,7 +7559,7 @@
       <c r="F783" s="2"/>
       <c r="G783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:7" ht="14.6">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -7220,7 +7568,7 @@
       <c r="F784" s="2"/>
       <c r="G784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:7" ht="14.6">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -7229,7 +7577,7 @@
       <c r="F785" s="2"/>
       <c r="G785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:7" ht="14.6">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -7238,7 +7586,7 @@
       <c r="F786" s="2"/>
       <c r="G786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:7" ht="14.6">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -7247,7 +7595,7 @@
       <c r="F787" s="2"/>
       <c r="G787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:7" ht="14.6">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -7256,7 +7604,7 @@
       <c r="F788" s="2"/>
       <c r="G788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:7" ht="14.6">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -7265,7 +7613,7 @@
       <c r="F789" s="2"/>
       <c r="G789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:7" ht="14.6">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -7274,7 +7622,7 @@
       <c r="F790" s="2"/>
       <c r="G790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:7" ht="14.6">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -7283,7 +7631,7 @@
       <c r="F791" s="2"/>
       <c r="G791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:7" ht="14.6">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -7292,7 +7640,7 @@
       <c r="F792" s="2"/>
       <c r="G792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:7" ht="14.6">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -7301,7 +7649,7 @@
       <c r="F793" s="2"/>
       <c r="G793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:7" ht="14.6">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -7310,7 +7658,7 @@
       <c r="F794" s="2"/>
       <c r="G794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:7" ht="14.6">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -7319,7 +7667,7 @@
       <c r="F795" s="2"/>
       <c r="G795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:7" ht="14.6">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -7328,7 +7676,7 @@
       <c r="F796" s="2"/>
       <c r="G796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:7" ht="14.6">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -7337,7 +7685,7 @@
       <c r="F797" s="2"/>
       <c r="G797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:7" ht="14.6">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -7346,7 +7694,7 @@
       <c r="F798" s="2"/>
       <c r="G798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:7" ht="14.6">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -7355,7 +7703,7 @@
       <c r="F799" s="2"/>
       <c r="G799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:7" ht="14.6">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -7364,7 +7712,7 @@
       <c r="F800" s="2"/>
       <c r="G800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:7" ht="14.6">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -7373,7 +7721,7 @@
       <c r="F801" s="2"/>
       <c r="G801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:7" ht="14.6">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -7382,7 +7730,7 @@
       <c r="F802" s="2"/>
       <c r="G802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:7" ht="14.6">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -7391,7 +7739,7 @@
       <c r="F803" s="2"/>
       <c r="G803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:7" ht="14.6">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -7400,7 +7748,7 @@
       <c r="F804" s="2"/>
       <c r="G804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:7" ht="14.6">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -7409,7 +7757,7 @@
       <c r="F805" s="2"/>
       <c r="G805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:7" ht="14.6">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -7418,7 +7766,7 @@
       <c r="F806" s="2"/>
       <c r="G806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:7" ht="14.6">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -7427,7 +7775,7 @@
       <c r="F807" s="2"/>
       <c r="G807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:7" ht="14.6">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -7436,7 +7784,7 @@
       <c r="F808" s="2"/>
       <c r="G808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:7" ht="14.6">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -7445,7 +7793,7 @@
       <c r="F809" s="2"/>
       <c r="G809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:7" ht="14.6">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -7454,7 +7802,7 @@
       <c r="F810" s="2"/>
       <c r="G810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:7" ht="14.6">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -7463,7 +7811,7 @@
       <c r="F811" s="2"/>
       <c r="G811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:7" ht="14.6">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -7472,7 +7820,7 @@
       <c r="F812" s="2"/>
       <c r="G812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:7" ht="14.6">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -7481,7 +7829,7 @@
       <c r="F813" s="2"/>
       <c r="G813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:7" ht="14.6">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -7490,7 +7838,7 @@
       <c r="F814" s="2"/>
       <c r="G814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:7" ht="14.6">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -7499,7 +7847,7 @@
       <c r="F815" s="2"/>
       <c r="G815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:7" ht="14.6">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -7508,7 +7856,7 @@
       <c r="F816" s="2"/>
       <c r="G816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:7" ht="14.6">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -7517,7 +7865,7 @@
       <c r="F817" s="2"/>
       <c r="G817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:7" ht="14.6">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -7526,7 +7874,7 @@
       <c r="F818" s="2"/>
       <c r="G818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:7" ht="14.6">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -7535,7 +7883,7 @@
       <c r="F819" s="2"/>
       <c r="G819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:7" ht="14.6">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -7544,7 +7892,7 @@
       <c r="F820" s="2"/>
       <c r="G820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:7" ht="14.6">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -7553,7 +7901,7 @@
       <c r="F821" s="2"/>
       <c r="G821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:7" ht="14.6">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -7562,7 +7910,7 @@
       <c r="F822" s="2"/>
       <c r="G822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:7" ht="14.6">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -7571,7 +7919,7 @@
       <c r="F823" s="2"/>
       <c r="G823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:7" ht="14.6">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -7580,7 +7928,7 @@
       <c r="F824" s="2"/>
       <c r="G824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:7" ht="14.6">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -7589,7 +7937,7 @@
       <c r="F825" s="2"/>
       <c r="G825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:7" ht="14.6">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -7598,7 +7946,7 @@
       <c r="F826" s="2"/>
       <c r="G826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:7" ht="14.6">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -7607,7 +7955,7 @@
       <c r="F827" s="2"/>
       <c r="G827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:7" ht="14.6">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -7616,7 +7964,7 @@
       <c r="F828" s="2"/>
       <c r="G828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:7" ht="14.6">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -7625,7 +7973,7 @@
       <c r="F829" s="2"/>
       <c r="G829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:7" ht="14.6">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -7634,7 +7982,7 @@
       <c r="F830" s="2"/>
       <c r="G830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:7" ht="14.6">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -7643,7 +7991,7 @@
       <c r="F831" s="2"/>
       <c r="G831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:7" ht="14.6">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -7652,7 +8000,7 @@
       <c r="F832" s="2"/>
       <c r="G832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:7" ht="14.6">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -7661,7 +8009,7 @@
       <c r="F833" s="2"/>
       <c r="G833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:7" ht="14.6">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -7670,7 +8018,7 @@
       <c r="F834" s="2"/>
       <c r="G834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:7" ht="14.6">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -7679,7 +8027,7 @@
       <c r="F835" s="2"/>
       <c r="G835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:7" ht="14.6">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -7688,7 +8036,7 @@
       <c r="F836" s="2"/>
       <c r="G836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:7" ht="14.6">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -7697,7 +8045,7 @@
       <c r="F837" s="2"/>
       <c r="G837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:7" ht="14.6">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -7706,7 +8054,7 @@
       <c r="F838" s="2"/>
       <c r="G838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:7" ht="14.6">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -7715,7 +8063,7 @@
       <c r="F839" s="2"/>
       <c r="G839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:7" ht="14.6">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -7724,7 +8072,7 @@
       <c r="F840" s="2"/>
       <c r="G840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:7" ht="14.6">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -7733,7 +8081,7 @@
       <c r="F841" s="2"/>
       <c r="G841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:7" ht="14.6">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -7742,7 +8090,7 @@
       <c r="F842" s="2"/>
       <c r="G842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:7" ht="14.6">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -7751,7 +8099,7 @@
       <c r="F843" s="2"/>
       <c r="G843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:7" ht="14.6">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -7760,7 +8108,7 @@
       <c r="F844" s="2"/>
       <c r="G844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:7" ht="14.6">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -7769,7 +8117,7 @@
       <c r="F845" s="2"/>
       <c r="G845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:7" ht="14.6">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -7778,7 +8126,7 @@
       <c r="F846" s="2"/>
       <c r="G846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:7" ht="14.6">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -7787,7 +8135,7 @@
       <c r="F847" s="2"/>
       <c r="G847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:7" ht="14.6">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -7796,7 +8144,7 @@
       <c r="F848" s="2"/>
       <c r="G848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:7" ht="14.6">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -7805,7 +8153,7 @@
       <c r="F849" s="2"/>
       <c r="G849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:7" ht="14.6">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -7814,7 +8162,7 @@
       <c r="F850" s="2"/>
       <c r="G850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:7" ht="14.6">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -7823,7 +8171,7 @@
       <c r="F851" s="2"/>
       <c r="G851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:7" ht="14.6">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -7832,7 +8180,7 @@
       <c r="F852" s="2"/>
       <c r="G852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:7" ht="14.6">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -7841,7 +8189,7 @@
       <c r="F853" s="2"/>
       <c r="G853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:7" ht="14.6">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -7850,7 +8198,7 @@
       <c r="F854" s="2"/>
       <c r="G854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:7" ht="14.6">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -7859,7 +8207,7 @@
       <c r="F855" s="2"/>
       <c r="G855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:7" ht="14.6">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -7868,7 +8216,7 @@
       <c r="F856" s="2"/>
       <c r="G856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:7" ht="14.6">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -7877,7 +8225,7 @@
       <c r="F857" s="2"/>
       <c r="G857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:7" ht="14.6">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -7886,7 +8234,7 @@
       <c r="F858" s="2"/>
       <c r="G858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:7" ht="14.6">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -7895,7 +8243,7 @@
       <c r="F859" s="2"/>
       <c r="G859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:7" ht="14.6">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -7904,7 +8252,7 @@
       <c r="F860" s="2"/>
       <c r="G860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:7" ht="14.6">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -7913,7 +8261,7 @@
       <c r="F861" s="2"/>
       <c r="G861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:7" ht="14.6">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -7922,7 +8270,7 @@
       <c r="F862" s="2"/>
       <c r="G862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:7" ht="14.6">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -7931,7 +8279,7 @@
       <c r="F863" s="2"/>
       <c r="G863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:7" ht="14.6">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -7940,7 +8288,7 @@
       <c r="F864" s="2"/>
       <c r="G864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:7" ht="14.6">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -7949,7 +8297,7 @@
       <c r="F865" s="2"/>
       <c r="G865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:7" ht="14.6">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -7958,7 +8306,7 @@
       <c r="F866" s="2"/>
       <c r="G866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:7" ht="14.6">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -7967,7 +8315,7 @@
       <c r="F867" s="2"/>
       <c r="G867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:7" ht="14.6">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -7976,7 +8324,7 @@
       <c r="F868" s="2"/>
       <c r="G868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:7" ht="14.6">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -7985,7 +8333,7 @@
       <c r="F869" s="2"/>
       <c r="G869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:7" ht="14.6">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -7994,7 +8342,7 @@
       <c r="F870" s="2"/>
       <c r="G870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:7" ht="14.6">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -8003,7 +8351,7 @@
       <c r="F871" s="2"/>
       <c r="G871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:7" ht="14.6">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -8012,7 +8360,7 @@
       <c r="F872" s="2"/>
       <c r="G872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:7" ht="14.6">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -8021,7 +8369,7 @@
       <c r="F873" s="2"/>
       <c r="G873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:7" ht="14.6">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -8030,7 +8378,7 @@
       <c r="F874" s="2"/>
       <c r="G874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:7" ht="14.6">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -8039,7 +8387,7 @@
       <c r="F875" s="2"/>
       <c r="G875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:7" ht="14.6">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -8048,7 +8396,7 @@
       <c r="F876" s="2"/>
       <c r="G876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:7" ht="14.6">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -8057,7 +8405,7 @@
       <c r="F877" s="2"/>
       <c r="G877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:7" ht="14.6">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -8066,7 +8414,7 @@
       <c r="F878" s="2"/>
       <c r="G878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:7" ht="14.6">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -8075,7 +8423,7 @@
       <c r="F879" s="2"/>
       <c r="G879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:7" ht="14.6">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -8084,7 +8432,7 @@
       <c r="F880" s="2"/>
       <c r="G880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:7" ht="14.6">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -8093,7 +8441,7 @@
       <c r="F881" s="2"/>
       <c r="G881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:7" ht="14.6">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -8102,7 +8450,7 @@
       <c r="F882" s="2"/>
       <c r="G882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:7" ht="14.6">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -8111,7 +8459,7 @@
       <c r="F883" s="2"/>
       <c r="G883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:7" ht="14.6">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -8120,7 +8468,7 @@
       <c r="F884" s="2"/>
       <c r="G884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:7" ht="14.6">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -8129,7 +8477,7 @@
       <c r="F885" s="2"/>
       <c r="G885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:7" ht="14.6">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -8138,7 +8486,7 @@
       <c r="F886" s="2"/>
       <c r="G886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:7" ht="14.6">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -8147,7 +8495,7 @@
       <c r="F887" s="2"/>
       <c r="G887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:7" ht="14.6">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -8156,7 +8504,7 @@
       <c r="F888" s="2"/>
       <c r="G888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:7" ht="14.6">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -8165,7 +8513,7 @@
       <c r="F889" s="2"/>
       <c r="G889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:7" ht="14.6">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -8174,7 +8522,7 @@
       <c r="F890" s="2"/>
       <c r="G890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:7" ht="14.6">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -8183,7 +8531,7 @@
       <c r="F891" s="2"/>
       <c r="G891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:7" ht="14.6">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -8192,7 +8540,7 @@
       <c r="F892" s="2"/>
       <c r="G892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:7" ht="14.6">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -8201,7 +8549,7 @@
       <c r="F893" s="2"/>
       <c r="G893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:7" ht="14.6">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -8210,7 +8558,7 @@
       <c r="F894" s="2"/>
       <c r="G894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:7" ht="14.6">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -8219,7 +8567,7 @@
       <c r="F895" s="2"/>
       <c r="G895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:7" ht="14.6">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -8228,7 +8576,7 @@
       <c r="F896" s="2"/>
       <c r="G896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:7" ht="14.6">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -8237,7 +8585,7 @@
       <c r="F897" s="2"/>
       <c r="G897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:7" ht="14.6">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -8246,7 +8594,7 @@
       <c r="F898" s="2"/>
       <c r="G898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:7" ht="14.6">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -8255,7 +8603,7 @@
       <c r="F899" s="2"/>
       <c r="G899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:7" ht="14.6">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -8264,7 +8612,7 @@
       <c r="F900" s="2"/>
       <c r="G900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:7" ht="14.6">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -8273,7 +8621,7 @@
       <c r="F901" s="2"/>
       <c r="G901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:7" ht="14.6">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -8282,7 +8630,7 @@
       <c r="F902" s="2"/>
       <c r="G902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:7" ht="14.6">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -8291,7 +8639,7 @@
       <c r="F903" s="2"/>
       <c r="G903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:7" ht="14.6">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -8300,7 +8648,7 @@
       <c r="F904" s="2"/>
       <c r="G904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:7" ht="14.6">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -8309,7 +8657,7 @@
       <c r="F905" s="2"/>
       <c r="G905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:7" ht="14.6">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -8318,7 +8666,7 @@
       <c r="F906" s="2"/>
       <c r="G906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:7" ht="14.6">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -8327,7 +8675,7 @@
       <c r="F907" s="2"/>
       <c r="G907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:7" ht="14.6">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -8336,7 +8684,7 @@
       <c r="F908" s="2"/>
       <c r="G908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:7" ht="14.6">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -8345,7 +8693,7 @@
       <c r="F909" s="2"/>
       <c r="G909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:7" ht="14.6">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -8354,7 +8702,7 @@
       <c r="F910" s="2"/>
       <c r="G910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:7" ht="14.6">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -8363,7 +8711,7 @@
       <c r="F911" s="2"/>
       <c r="G911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:7" ht="14.6">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -8372,7 +8720,7 @@
       <c r="F912" s="2"/>
       <c r="G912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:7" ht="14.6">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -8381,7 +8729,7 @@
       <c r="F913" s="2"/>
       <c r="G913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:7" ht="14.6">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -8390,7 +8738,7 @@
       <c r="F914" s="2"/>
       <c r="G914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:7" ht="14.6">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -8399,7 +8747,7 @@
       <c r="F915" s="2"/>
       <c r="G915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:7" ht="14.6">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -8408,7 +8756,7 @@
       <c r="F916" s="2"/>
       <c r="G916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:7" ht="14.6">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -8417,7 +8765,7 @@
       <c r="F917" s="2"/>
       <c r="G917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:7" ht="14.6">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -8426,7 +8774,7 @@
       <c r="F918" s="2"/>
       <c r="G918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:7" ht="14.6">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -8435,7 +8783,7 @@
       <c r="F919" s="2"/>
       <c r="G919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:7" ht="14.6">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -8444,7 +8792,7 @@
       <c r="F920" s="2"/>
       <c r="G920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:7" ht="14.6">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -8453,7 +8801,7 @@
       <c r="F921" s="2"/>
       <c r="G921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:7" ht="14.6">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -8462,7 +8810,7 @@
       <c r="F922" s="2"/>
       <c r="G922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:7" ht="14.6">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -8471,7 +8819,7 @@
       <c r="F923" s="2"/>
       <c r="G923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:7" ht="14.6">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -8480,7 +8828,7 @@
       <c r="F924" s="2"/>
       <c r="G924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:7" ht="14.6">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -8489,7 +8837,7 @@
       <c r="F925" s="2"/>
       <c r="G925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:7" ht="14.6">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -8498,7 +8846,7 @@
       <c r="F926" s="2"/>
       <c r="G926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:7" ht="14.6">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -8507,7 +8855,7 @@
       <c r="F927" s="2"/>
       <c r="G927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:7" ht="14.6">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -8516,7 +8864,7 @@
       <c r="F928" s="2"/>
       <c r="G928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:7" ht="14.6">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -8525,7 +8873,7 @@
       <c r="F929" s="2"/>
       <c r="G929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:7" ht="14.6">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -8534,7 +8882,7 @@
       <c r="F930" s="2"/>
       <c r="G930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:7" ht="14.6">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -8543,7 +8891,7 @@
       <c r="F931" s="2"/>
       <c r="G931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:7" ht="14.6">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -8552,7 +8900,7 @@
       <c r="F932" s="2"/>
       <c r="G932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:7" ht="14.6">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -8561,7 +8909,7 @@
       <c r="F933" s="2"/>
       <c r="G933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:7" ht="14.6">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -8570,7 +8918,7 @@
       <c r="F934" s="2"/>
       <c r="G934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:7" ht="14.6">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -8579,7 +8927,7 @@
       <c r="F935" s="2"/>
       <c r="G935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:7" ht="14.6">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -8588,7 +8936,7 @@
       <c r="F936" s="2"/>
       <c r="G936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:7" ht="14.6">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -8597,7 +8945,7 @@
       <c r="F937" s="2"/>
       <c r="G937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:7" ht="14.6">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -8606,7 +8954,7 @@
       <c r="F938" s="2"/>
       <c r="G938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:7" ht="14.6">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -8615,7 +8963,7 @@
       <c r="F939" s="2"/>
       <c r="G939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:7" ht="14.6">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -8624,7 +8972,7 @@
       <c r="F940" s="2"/>
       <c r="G940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:7" ht="14.6">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -8633,7 +8981,7 @@
       <c r="F941" s="2"/>
       <c r="G941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:7" ht="14.6">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -8642,7 +8990,7 @@
       <c r="F942" s="2"/>
       <c r="G942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:7" ht="14.6">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -8651,7 +8999,7 @@
       <c r="F943" s="2"/>
       <c r="G943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:7" ht="14.6">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -8660,7 +9008,7 @@
       <c r="F944" s="2"/>
       <c r="G944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:7" ht="14.6">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -8669,7 +9017,7 @@
       <c r="F945" s="2"/>
       <c r="G945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:7" ht="14.6">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -8678,7 +9026,7 @@
       <c r="F946" s="2"/>
       <c r="G946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:7" ht="14.6">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -8687,7 +9035,7 @@
       <c r="F947" s="2"/>
       <c r="G947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:7" ht="14.6">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -8696,7 +9044,7 @@
       <c r="F948" s="2"/>
       <c r="G948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:7" ht="14.6">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -8705,7 +9053,7 @@
       <c r="F949" s="2"/>
       <c r="G949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:7" ht="14.6">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -8714,7 +9062,7 @@
       <c r="F950" s="2"/>
       <c r="G950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:7" ht="14.6">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -8723,7 +9071,7 @@
       <c r="F951" s="2"/>
       <c r="G951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:7" ht="14.6">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -8732,7 +9080,7 @@
       <c r="F952" s="2"/>
       <c r="G952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:7" ht="14.6">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -8741,7 +9089,7 @@
       <c r="F953" s="2"/>
       <c r="G953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:7" ht="14.6">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -8750,7 +9098,7 @@
       <c r="F954" s="2"/>
       <c r="G954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:7" ht="14.6">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -8759,7 +9107,7 @@
       <c r="F955" s="2"/>
       <c r="G955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:7" ht="14.6">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -8768,7 +9116,7 @@
       <c r="F956" s="2"/>
       <c r="G956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:7" ht="14.6">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -8777,7 +9125,7 @@
       <c r="F957" s="2"/>
       <c r="G957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:7" ht="14.6">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -8786,7 +9134,7 @@
       <c r="F958" s="2"/>
       <c r="G958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:7" ht="14.6">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -8795,7 +9143,7 @@
       <c r="F959" s="2"/>
       <c r="G959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:7" ht="14.6">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -8804,7 +9152,7 @@
       <c r="F960" s="2"/>
       <c r="G960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:7" ht="14.6">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -8813,7 +9161,7 @@
       <c r="F961" s="2"/>
       <c r="G961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:7" ht="14.6">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -8822,7 +9170,7 @@
       <c r="F962" s="2"/>
       <c r="G962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:7" ht="14.6">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -8831,7 +9179,7 @@
       <c r="F963" s="2"/>
       <c r="G963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:7" ht="14.6">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -8840,7 +9188,7 @@
       <c r="F964" s="2"/>
       <c r="G964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:7" ht="14.6">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -8849,7 +9197,7 @@
       <c r="F965" s="2"/>
       <c r="G965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:7" ht="14.6">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -8858,7 +9206,7 @@
       <c r="F966" s="2"/>
       <c r="G966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:7" ht="14.6">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -8867,7 +9215,7 @@
       <c r="F967" s="2"/>
       <c r="G967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:7" ht="14.6">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -8876,7 +9224,7 @@
       <c r="F968" s="2"/>
       <c r="G968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:7" ht="14.6">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -8885,7 +9233,7 @@
       <c r="F969" s="2"/>
       <c r="G969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:7" ht="14.6">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -8894,7 +9242,7 @@
       <c r="F970" s="2"/>
       <c r="G970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:7" ht="14.6">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -8903,7 +9251,7 @@
       <c r="F971" s="2"/>
       <c r="G971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:7" ht="14.6">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -8912,7 +9260,7 @@
       <c r="F972" s="2"/>
       <c r="G972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:7" ht="14.6">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -8921,7 +9269,7 @@
       <c r="F973" s="2"/>
       <c r="G973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:7" ht="14.6">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -8930,7 +9278,7 @@
       <c r="F974" s="2"/>
       <c r="G974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:7" ht="14.6">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -8939,7 +9287,7 @@
       <c r="F975" s="2"/>
       <c r="G975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:7" ht="14.6">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -8948,7 +9296,7 @@
       <c r="F976" s="2"/>
       <c r="G976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:7" ht="14.6">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -8957,7 +9305,7 @@
       <c r="F977" s="2"/>
       <c r="G977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:7" ht="14.6">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -8966,7 +9314,7 @@
       <c r="F978" s="2"/>
       <c r="G978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:7" ht="14.6">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -8975,7 +9323,7 @@
       <c r="F979" s="2"/>
       <c r="G979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:7" ht="14.6">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -8984,7 +9332,7 @@
       <c r="F980" s="2"/>
       <c r="G980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:7" ht="14.6">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -8993,7 +9341,7 @@
       <c r="F981" s="2"/>
       <c r="G981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:7" ht="14.6">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -9002,7 +9350,7 @@
       <c r="F982" s="2"/>
       <c r="G982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:7" ht="14.6">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -9011,7 +9359,7 @@
       <c r="F983" s="2"/>
       <c r="G983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:7" ht="14.6">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -9020,7 +9368,7 @@
       <c r="F984" s="2"/>
       <c r="G984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:7" ht="14.6">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -9029,7 +9377,7 @@
       <c r="F985" s="2"/>
       <c r="G985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:7" ht="14.6">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -9038,7 +9386,7 @@
       <c r="F986" s="2"/>
       <c r="G986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:7" ht="14.6">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -9047,7 +9395,7 @@
       <c r="F987" s="2"/>
       <c r="G987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:7" ht="14.6">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -9056,7 +9404,7 @@
       <c r="F988" s="2"/>
       <c r="G988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:7" ht="14.6">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -9065,7 +9413,7 @@
       <c r="F989" s="2"/>
       <c r="G989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:7" ht="14.6">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -9074,7 +9422,7 @@
       <c r="F990" s="2"/>
       <c r="G990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:7" ht="14.6">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -9083,7 +9431,7 @@
       <c r="F991" s="2"/>
       <c r="G991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:7" ht="14.6">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -9092,7 +9440,7 @@
       <c r="F992" s="2"/>
       <c r="G992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:7" ht="14.6">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -9101,7 +9449,7 @@
       <c r="F993" s="2"/>
       <c r="G993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:7" ht="14.6">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -9110,7 +9458,7 @@
       <c r="F994" s="2"/>
       <c r="G994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:7" ht="14.6">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -9119,7 +9467,7 @@
       <c r="F995" s="2"/>
       <c r="G995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:7" ht="14.6">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -9128,7 +9476,7 @@
       <c r="F996" s="2"/>
       <c r="G996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:7" ht="14.6">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -9137,7 +9485,7 @@
       <c r="F997" s="2"/>
       <c r="G997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:7" ht="14.6">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -9146,7 +9494,7 @@
       <c r="F998" s="2"/>
       <c r="G998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:7" ht="14.6">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -9155,7 +9503,7 @@
       <c r="F999" s="2"/>
       <c r="G999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:7" ht="14.6">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -9164,7 +9512,7 @@
       <c r="F1000" s="2"/>
       <c r="G1000" s="2"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:7" ht="14.6">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="2"/>
@@ -9173,7 +9521,16 @@
       <c r="F1001" s="2"/>
       <c r="G1001" s="2"/>
     </row>
+    <row r="1002" spans="1:7" ht="14.6">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>